--- a/output/fit_clients/fit_round_404.xlsx
+++ b/output/fit_clients/fit_round_404.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2064741975.776976</v>
+        <v>1882879823.322764</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08703135101592116</v>
+        <v>0.07918909122575214</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03773838252971144</v>
+        <v>0.04301727364575809</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1032370992.289949</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2339671714.598019</v>
+        <v>2048106390.125341</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1259456806792866</v>
+        <v>0.1483377840034966</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04552439290622561</v>
+        <v>0.0329322218842468</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1169835949.983292</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4000577217.016602</v>
+        <v>4986615286.233158</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1506801506365067</v>
+        <v>0.1215270258943749</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03822913222755229</v>
+        <v>0.02826950647656578</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>146</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2000288622.75639</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3677061884.003403</v>
+        <v>3781035125.2239</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07914343245083771</v>
+        <v>0.101466407627918</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03225742491018754</v>
+        <v>0.0454082239822854</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>150</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1838530967.096205</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2320285507.144588</v>
+        <v>1939149827.709207</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1489554790521713</v>
+        <v>0.1174434394929642</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03921932376871395</v>
+        <v>0.05360873432502614</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>73</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1160142748.518832</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2519160231.080368</v>
+        <v>2297455149.564904</v>
       </c>
       <c r="F7" t="n">
-        <v>0.093579234371044</v>
+        <v>0.08635642571204591</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03385225308425219</v>
+        <v>0.03273613112103333</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>127</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1259580126.743227</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2783872338.569787</v>
+        <v>2426821484.133202</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1954738179018879</v>
+        <v>0.1708166953743231</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0228456455764058</v>
+        <v>0.02268643149594628</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>129</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1391936204.716846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1850585139.912895</v>
+        <v>1875858163.394594</v>
       </c>
       <c r="F9" t="n">
-        <v>0.130559149322125</v>
+        <v>0.1783707333237551</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03211420690530171</v>
+        <v>0.03231150990556603</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>925292617.3100839</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5239758187.320174</v>
+        <v>3887883561.719978</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1353228110005829</v>
+        <v>0.1815585589436736</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05135339049906055</v>
+        <v>0.03614920700416574</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>170</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2619879211.539111</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3518536862.924362</v>
+        <v>3037318781.752841</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1433454109783974</v>
+        <v>0.149098832489892</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03187618497944403</v>
+        <v>0.04550676209212193</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>167</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1759268410.551244</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2179582616.6142</v>
+        <v>2381732698.003146</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1848857838410242</v>
+        <v>0.1571908878286329</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03824376262768372</v>
+        <v>0.04200569814420883</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>137</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1089791251.214717</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4938991950.321967</v>
+        <v>5278856513.286286</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07366400721876019</v>
+        <v>0.09919792689976534</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01913151021749806</v>
+        <v>0.02107066562239154</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>136</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2469495982.411736</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3258732926.655681</v>
+        <v>2797922407.569245</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1196246965432717</v>
+        <v>0.1361260168682953</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04047417493120695</v>
+        <v>0.0337472726082283</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>129</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1629366479.045853</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1142806546.77001</v>
+        <v>1593600658.542614</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08251595540402222</v>
+        <v>0.0774499786790236</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03034798361234815</v>
+        <v>0.03464554757075138</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>571403277.9143908</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1975502143.37991</v>
+        <v>2554833859.086556</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0873862975212895</v>
+        <v>0.08717961446569804</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0486979932122309</v>
+        <v>0.04133169545631244</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>82</v>
-      </c>
-      <c r="J16" t="n">
-        <v>987751149.3819779</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5167514314.275598</v>
+        <v>5248968900.389327</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1288055602639954</v>
+        <v>0.1645619275548918</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03982593146602933</v>
+        <v>0.04266205787490907</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>119</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2583757134.034911</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2503805324.960353</v>
+        <v>3612401350.146612</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1210456682635465</v>
+        <v>0.1475905565217547</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03224958467098827</v>
+        <v>0.02085183405592792</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>132</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1251902728.642133</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>946735922.5208446</v>
+        <v>1319698204.604331</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1635603688131246</v>
+        <v>0.1292180673804424</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01794648978618116</v>
+        <v>0.0217983136455431</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>473367977.5387058</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2801920390.9867</v>
+        <v>1731338198.67096</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1103456965012578</v>
+        <v>0.1273400464186127</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02001560462900895</v>
+        <v>0.02914397850157406</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>53</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1400960136.441752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1925372831.244526</v>
+        <v>1991251840.904618</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07321437905632419</v>
+        <v>0.09515933396742945</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03868558586531805</v>
+        <v>0.0439977159127294</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>33</v>
-      </c>
-      <c r="J21" t="n">
-        <v>962686458.7440963</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3106350148.557067</v>
+        <v>3281704055.367602</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09334726732827056</v>
+        <v>0.1223352336871623</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05683249911951537</v>
+        <v>0.04527014468886112</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>111</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1553175129.458454</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1037682650.837145</v>
+        <v>1467222091.178357</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1387639659356575</v>
+        <v>0.1331744158050039</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05405653510022478</v>
+        <v>0.05182755352651084</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>518841389.2708397</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4095789846.526406</v>
+        <v>3596180292.463137</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1452704193578242</v>
+        <v>0.1476671478955468</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03365865484709289</v>
+        <v>0.02389486777911735</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>118</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2047894884.816733</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1296726541.783775</v>
+        <v>1351858868.344515</v>
       </c>
       <c r="F25" t="n">
-        <v>0.10635270683905</v>
+        <v>0.1111877229820776</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0288074441809634</v>
+        <v>0.02322741245953991</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>648363266.6137563</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1275827675.365362</v>
+        <v>1237058909.344987</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0817183459315719</v>
+        <v>0.1022676645658444</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02997174046476167</v>
+        <v>0.02901948940652655</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>637913877.2735676</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2864342397.75533</v>
+        <v>4108428680.011755</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1339070183156661</v>
+        <v>0.117596182414217</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02581720130197432</v>
+        <v>0.01739693647633884</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1432171265.434053</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3494611359.090198</v>
+        <v>2888533623.267306</v>
       </c>
       <c r="F28" t="n">
-        <v>0.142957123457122</v>
+        <v>0.1140189715400567</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04506363401987527</v>
+        <v>0.03172191336146855</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>134</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1747305733.711683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4524955201.018576</v>
+        <v>4932588086.32164</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1240311640978368</v>
+        <v>0.1059790686670654</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03740937365445953</v>
+        <v>0.04537562348704977</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>178</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2262477581.048014</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1812561918.731947</v>
+        <v>2351360092.82881</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08496947695904813</v>
+        <v>0.09053967947651974</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03151546808227352</v>
+        <v>0.0294367202066399</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>906280975.4676324</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1091559695.235858</v>
+        <v>1273612307.687057</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0846189701470059</v>
+        <v>0.07567850434170129</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04061020831595197</v>
+        <v>0.03522997091532106</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>545779824.6275487</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1662111714.275258</v>
+        <v>1154246883.457916</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0847774560769857</v>
+        <v>0.07660566291539099</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0241807696394944</v>
+        <v>0.03820511060189807</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>831055959.061597</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2741070524.129395</v>
+        <v>2352431303.768209</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2026913270443659</v>
+        <v>0.1352005539832062</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03691862633981371</v>
+        <v>0.05229800259253163</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>120</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1370535279.759473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1021334810.815781</v>
+        <v>1138513280.691215</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1035231860507826</v>
+        <v>0.08875148317341668</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02044785418893824</v>
+        <v>0.02671836950278836</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>510667439.7450835</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>839865985.3917658</v>
+        <v>1201600893.69099</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1095322026815793</v>
+        <v>0.1117050153723699</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04048569982609097</v>
+        <v>0.04062997726281999</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>419933046.3890247</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2637787338.663857</v>
+        <v>2761895342.241751</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1221124894680742</v>
+        <v>0.1441761517118229</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01783418209489704</v>
+        <v>0.02880479690478016</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>101</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1318893680.264189</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2582185889.572867</v>
+        <v>2420233722.550799</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1035212585538643</v>
+        <v>0.09144669334801614</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03581721152113242</v>
+        <v>0.03888078217150406</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>108</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1291093052.149708</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1424867448.242854</v>
+        <v>2166547355.384634</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09252273354729473</v>
+        <v>0.1094515849529272</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03059914842037082</v>
+        <v>0.0300059488800303</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>712433784.0030934</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1415801672.654581</v>
+        <v>1910931997.879837</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1357357465859498</v>
+        <v>0.1344158775051754</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02051923418093939</v>
+        <v>0.0202149749021952</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>707900919.5509608</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1403818971.534967</v>
+        <v>1561657179.126664</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1501287891468327</v>
+        <v>0.1259567835171279</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05171675289470904</v>
+        <v>0.04257314257143648</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>701909476.0624727</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1928461129.01026</v>
+        <v>2188957803.001632</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1229323599736353</v>
+        <v>0.143390998136939</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04501394135306746</v>
+        <v>0.03710782373449568</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>103</v>
-      </c>
-      <c r="J41" t="n">
-        <v>964230645.7129877</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2986667596.383911</v>
+        <v>3956107560.113164</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1053370924531684</v>
+        <v>0.1274533981668396</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03862111096553991</v>
+        <v>0.03369613195563317</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>135</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1493333757.722651</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2848948970.569075</v>
+        <v>3022384189.251473</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1658788684915597</v>
+        <v>0.1990603525157452</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01987021880335352</v>
+        <v>0.01936451793009978</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>141</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1424474498.8805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2109026812.677486</v>
+        <v>1492086800.847718</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08008680805433049</v>
+        <v>0.07649482993439249</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0274327646282652</v>
+        <v>0.02617875167088519</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1054513534.433003</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2250750737.758183</v>
+        <v>1852957092.868131</v>
       </c>
       <c r="F45" t="n">
-        <v>0.150423644390916</v>
+        <v>0.1520188738859921</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0352261986384182</v>
+        <v>0.04986356192155539</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1125375385.009467</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5015474533.886293</v>
+        <v>4495880136.38698</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1332771450747272</v>
+        <v>0.1312079233668558</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05810968904720253</v>
+        <v>0.03788170345151874</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>143</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2507737294.669724</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3688066434.424385</v>
+        <v>4119039803.505481</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1713378485242613</v>
+        <v>0.1465293040398502</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04319915077979188</v>
+        <v>0.04113800007105566</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>109</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1844033198.668202</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4356135707.427999</v>
+        <v>4384019704.803913</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1037199815793927</v>
+        <v>0.08043683740727708</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03231225509883922</v>
+        <v>0.03748733776735743</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>132</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2178067867.429081</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1904631544.777247</v>
+        <v>1443594674.701572</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1533835976680884</v>
+        <v>0.1908699379041186</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03840253979495208</v>
+        <v>0.04313605605220006</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>952315741.5315363</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3650669228.042994</v>
+        <v>3508035998.347126</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1535687282847151</v>
+        <v>0.140836021597723</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03583891013213384</v>
+        <v>0.0350331855616671</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>138</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1825334627.569041</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1421451757.270889</v>
+        <v>1063262023.283422</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1376862720684726</v>
+        <v>0.1181764968746395</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05286374568928886</v>
+        <v>0.04861443560095631</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>710725894.3043517</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4630554612.912057</v>
+        <v>3693579979.020374</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1009267322137329</v>
+        <v>0.08490216758774469</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04739779768075997</v>
+        <v>0.03834857411286678</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>166</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2315277325.838507</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2972723056.541801</v>
+        <v>3626896620.329644</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1941902583216174</v>
+        <v>0.1956738029247389</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02830619451020067</v>
+        <v>0.03556761130643153</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>117</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1486361562.637301</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4272405760.752464</v>
+        <v>3484676247.610107</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1239545554137306</v>
+        <v>0.1620114392120839</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04677859885135145</v>
+        <v>0.03311248473428313</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>131</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2136202965.863553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3869473690.259689</v>
+        <v>4850003181.423541</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1712987054315277</v>
+        <v>0.1386039793318782</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02185109605124293</v>
+        <v>0.02203863455951307</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1934736814.294229</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1775286208.643083</v>
+        <v>1143899125.849749</v>
       </c>
       <c r="F56" t="n">
-        <v>0.120807170850073</v>
+        <v>0.126508492048215</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03950570657072408</v>
+        <v>0.05094522540576495</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>887643105.8149958</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4045735900.878217</v>
+        <v>4106939177.783503</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1341787447773436</v>
+        <v>0.1389511457822611</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02403410714002802</v>
+        <v>0.02557540334907802</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>129</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2022868042.661358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1796707265.812475</v>
+        <v>1591599231.964634</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1287284082752942</v>
+        <v>0.1478415043508277</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03425819079625463</v>
+        <v>0.02550713749582079</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>898353636.981824</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3487485347.49441</v>
+        <v>4760024608.938479</v>
       </c>
       <c r="F59" t="n">
-        <v>0.102803466192954</v>
+        <v>0.09298059006454951</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03630240591915756</v>
+        <v>0.04982391570246553</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>109</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1743742674.4168</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2941262983.803235</v>
+        <v>2431820114.940263</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1770188415227666</v>
+        <v>0.1605478626764354</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02155651777088937</v>
+        <v>0.0320261423749824</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>125</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1470631556.107825</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2608227431.219658</v>
+        <v>2670892028.766788</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1115299799621567</v>
+        <v>0.1511552334955862</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02806595084750143</v>
+        <v>0.02980699201091932</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>139</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1304113733.03476</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1537045059.411876</v>
+        <v>1997469255.662235</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1396533538228776</v>
+        <v>0.1398445284475799</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03521281072586366</v>
+        <v>0.03933808803251723</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>768522518.3552021</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3578427073.408906</v>
+        <v>4252537120.466063</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07342884672027399</v>
+        <v>0.08919059333208576</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03399796219108784</v>
+        <v>0.03727775610447026</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>118</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1789213617.895862</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3565367376.604905</v>
+        <v>4027790986.239603</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1381598329899214</v>
+        <v>0.1221195335933899</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03338721848582222</v>
+        <v>0.02715956927320216</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>126</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1782683693.609078</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4831164153.881091</v>
+        <v>5266702093.875875</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1436695510084981</v>
+        <v>0.1686308475127692</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0247228901579824</v>
+        <v>0.02708516626733068</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>145</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2415582045.945151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5150051621.215775</v>
+        <v>3922007740.604724</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1324195386075954</v>
+        <v>0.1378145612124906</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05092129090666268</v>
+        <v>0.04313518273678241</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>119</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2575025845.822162</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2462590532.274649</v>
+        <v>3018327178.326134</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08640101255036738</v>
+        <v>0.08057267555296536</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04194345837268391</v>
+        <v>0.0507631772263924</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>130</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1231295329.884396</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4064712076.084121</v>
+        <v>4433236610.12129</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1548590806245584</v>
+        <v>0.09786413249608257</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03458555108853651</v>
+        <v>0.04933533718291579</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>131</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2032356037.766755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2326352793.794061</v>
+        <v>2207446924.276243</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1795380726049694</v>
+        <v>0.1288933846905466</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05827914048151514</v>
+        <v>0.04860767193417422</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1163176444.048938</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3690993357.39544</v>
+        <v>2298997721.980833</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09797923073375644</v>
+        <v>0.1002728091066011</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03894342624491758</v>
+        <v>0.03693625670529709</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>115</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1845496700.744905</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4642677882.002951</v>
+        <v>4725391909.026534</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1322204096099683</v>
+        <v>0.1204840503143187</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03119700633291662</v>
+        <v>0.02831650326055908</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>147</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2321339020.081323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2244044314.326931</v>
+        <v>1640298383.038172</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06703459932145092</v>
+        <v>0.1088818410226384</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04988153406453168</v>
+        <v>0.03202132052639056</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1122022064.162203</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2616482954.358902</v>
+        <v>2284965816.566482</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1044753007510488</v>
+        <v>0.09901636771159998</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04316504857766774</v>
+        <v>0.05070644915520185</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>154</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1308241508.302175</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3577337509.712682</v>
+        <v>3070934148.36389</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1574407369019378</v>
+        <v>0.1606258705575715</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03066396251106657</v>
+        <v>0.02939804980701509</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>137</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1788668770.324415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2440986661.849849</v>
+        <v>1928968585.09579</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1668440391469106</v>
+        <v>0.1007885809538524</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03034760882718307</v>
+        <v>0.03430582490215398</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1220493253.84875</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3732241811.224576</v>
+        <v>4896701747.501285</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07752353511217235</v>
+        <v>0.1131035910125224</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02564063391518399</v>
+        <v>0.03365940355215113</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1866120879.131638</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2313310935.141689</v>
+        <v>2304523286.141344</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1720863508120571</v>
+        <v>0.1816614952180028</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02766153313480038</v>
+        <v>0.02598830463492123</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1156655575.357113</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3669453234.374266</v>
+        <v>3179418555.588763</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08376160885730477</v>
+        <v>0.08945684785164724</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05208357339533562</v>
+        <v>0.03945349648554643</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>140</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1834726606.595407</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1434979768.917762</v>
+        <v>1294567910.47586</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1323469624098426</v>
+        <v>0.1670985129082797</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02591983653724674</v>
+        <v>0.02903934012945875</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>717489907.3051355</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4761376829.721819</v>
+        <v>3695938408.281146</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09869249220224834</v>
+        <v>0.07215848926612602</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02446566091179688</v>
+        <v>0.02897478938042148</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2380688452.205903</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3879367422.771289</v>
+        <v>3840684245.000988</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09932335203717989</v>
+        <v>0.09764559226972076</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02747950318000867</v>
+        <v>0.03165868623555299</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1939683670.131609</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5285490162.407569</v>
+        <v>4339944912.786481</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1804304084724745</v>
+        <v>0.2128514464560924</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02119797641080746</v>
+        <v>0.02837269302277604</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>143</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2642745049.244659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2044234219.055629</v>
+        <v>1962113395.507587</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1435641595326385</v>
+        <v>0.1096392610779862</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03611892866115083</v>
+        <v>0.03913278238081597</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1022117100.377873</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2499105439.583765</v>
+        <v>1796833772.035097</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08178488036936014</v>
+        <v>0.1121777989907997</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04066080177952702</v>
+        <v>0.03331187462561225</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1249552651.707693</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2952439225.314004</v>
+        <v>3019763675.60545</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1765120283777085</v>
+        <v>0.159792878128707</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05257493146095506</v>
+        <v>0.03944679808331959</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>152</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1476219667.560382</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2490821352.973599</v>
+        <v>2734739254.296667</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1184447281550295</v>
+        <v>0.1638990599675134</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02535047683466537</v>
+        <v>0.02158959956518076</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>54</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1245410772.389507</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1365848607.876854</v>
+        <v>1357697272.403268</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1568111318549382</v>
+        <v>0.1266261163252536</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02831095477178652</v>
+        <v>0.0362868856898226</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>682924402.0349866</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2737088574.981227</v>
+        <v>3032557684.859197</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1123031077049546</v>
+        <v>0.1304213842020011</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02890532100415296</v>
+        <v>0.02829815927584202</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>159</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1368544291.957994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2689047956.311717</v>
+        <v>2839668934.588772</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09933941874783674</v>
+        <v>0.1257368106237702</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03916419686223671</v>
+        <v>0.02679093294921192</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>136</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1344524039.074181</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1721556163.170585</v>
+        <v>1812306563.187919</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08838492964370982</v>
+        <v>0.102155473875576</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04132429617824625</v>
+        <v>0.04610180625791461</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>860778100.8631903</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1439092668.95441</v>
+        <v>1290860570.51727</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1304735562119233</v>
+        <v>0.172660745421029</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04103762817782731</v>
+        <v>0.03928116001802878</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>719546381.5183774</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2996659490.861394</v>
+        <v>2694092817.002063</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07549865677563543</v>
+        <v>0.09447812177837656</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0326187637342889</v>
+        <v>0.02891240648089697</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>114</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1498329766.926737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4402747645.604949</v>
+        <v>3142043417.991518</v>
       </c>
       <c r="F93" t="n">
-        <v>0.095637055588856</v>
+        <v>0.103072770179854</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04534910246888568</v>
+        <v>0.04098620188838416</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>122</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2201373797.405641</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1609614020.476421</v>
+        <v>1560428595.629543</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1681990971215089</v>
+        <v>0.1542100480830117</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03949717076518906</v>
+        <v>0.03961659145225298</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>804806957.8517019</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2878196824.994884</v>
+        <v>3192202553.983824</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1099208545204422</v>
+        <v>0.1253346376016925</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05071319119569296</v>
+        <v>0.04864943840859186</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>97</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1439098421.134909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2165947512.211491</v>
+        <v>2406956913.085714</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1193853844911782</v>
+        <v>0.12346403112448</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04186093505863044</v>
+        <v>0.03383911070105327</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1082973725.402047</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4159574303.362242</v>
+        <v>3837189701.273067</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1134498939921737</v>
+        <v>0.1111059581051066</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02036823864405505</v>
+        <v>0.02440620957673407</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>130</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2079787220.90456</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2401801879.644031</v>
+        <v>2452193932.467117</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08142335563234294</v>
+        <v>0.1209900624647774</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02478528972515481</v>
+        <v>0.03215237898780312</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>110</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1200900883.956884</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2813519181.639395</v>
+        <v>2300772743.09435</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09809971270069275</v>
+        <v>0.09990177812438146</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03327316565145329</v>
+        <v>0.03146995741618616</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>126</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1406759563.258941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3334384761.569602</v>
+        <v>4153292622.343734</v>
       </c>
       <c r="F100" t="n">
-        <v>0.130613031537783</v>
+        <v>0.1529863662781651</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02416600699984221</v>
+        <v>0.02010326847766152</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>124</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1667192398.3232</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3390980316.432352</v>
+        <v>3548978769.580203</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1847280517252075</v>
+        <v>0.1700290435577796</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05655050815871765</v>
+        <v>0.04197871753288147</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>163</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1695490298.942892</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_404.xlsx
+++ b/output/fit_clients/fit_round_404.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1882879823.322764</v>
+        <v>2071878113.433672</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07918909122575214</v>
+        <v>0.07422661334700981</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04301727364575809</v>
+        <v>0.03167295892440428</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2048106390.125341</v>
+        <v>2374899757.132568</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1483377840034966</v>
+        <v>0.1137993650672724</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0329322218842468</v>
+        <v>0.04728687485410535</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4986615286.233158</v>
+        <v>3700779636.466745</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1215270258943749</v>
+        <v>0.123001879765708</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02826950647656578</v>
+        <v>0.02986224638533221</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3781035125.2239</v>
+        <v>2828609429.299921</v>
       </c>
       <c r="F5" t="n">
-        <v>0.101466407627918</v>
+        <v>0.1049991224583139</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0454082239822854</v>
+        <v>0.04927788932290521</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1939149827.709207</v>
+        <v>2359564693.289208</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1174434394929642</v>
+        <v>0.125179215158214</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05360873432502614</v>
+        <v>0.05610609719833167</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2297455149.564904</v>
+        <v>2215015419.149544</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08635642571204591</v>
+        <v>0.06291740276691293</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03273613112103333</v>
+        <v>0.03663036712230826</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2426821484.133202</v>
+        <v>3597799233.621424</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1708166953743231</v>
+        <v>0.1345329397046067</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02268643149594628</v>
+        <v>0.03322733331967913</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1875858163.394594</v>
+        <v>2010344448.32633</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1783707333237551</v>
+        <v>0.1737687339225313</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03231150990556603</v>
+        <v>0.02593234643659386</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3887883561.719978</v>
+        <v>3699447038.961016</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1815585589436736</v>
+        <v>0.1513421158245291</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03614920700416574</v>
+        <v>0.04024207779136612</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3037318781.752841</v>
+        <v>3559164163.760382</v>
       </c>
       <c r="F11" t="n">
-        <v>0.149098832489892</v>
+        <v>0.1659421528658576</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04550676209212193</v>
+        <v>0.0483827879654404</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2381732698.003146</v>
+        <v>2405934197.621727</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1571908878286329</v>
+        <v>0.1479472533653513</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04200569814420883</v>
+        <v>0.05335967700403496</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5278856513.286286</v>
+        <v>4631374270.097553</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09919792689976534</v>
+        <v>0.06562193084990593</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02107066562239154</v>
+        <v>0.0251421252265002</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2797922407.569245</v>
+        <v>2835482953.126294</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1361260168682953</v>
+        <v>0.1599076961961532</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0337472726082283</v>
+        <v>0.03976590208101237</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1593600658.542614</v>
+        <v>1185376333.538114</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0774499786790236</v>
+        <v>0.1022123029513211</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03464554757075138</v>
+        <v>0.03652906399386503</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2554833859.086556</v>
+        <v>2690311544.254889</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08717961446569804</v>
+        <v>0.09755401868247239</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04133169545631244</v>
+        <v>0.03492365258089793</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5248968900.389327</v>
+        <v>3405372150.36763</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1645619275548918</v>
+        <v>0.1156349320450408</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04266205787490907</v>
+        <v>0.0381498832225555</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3612401350.146612</v>
+        <v>3112611107.70498</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1475905565217547</v>
+        <v>0.1521891948765235</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02085183405592792</v>
+        <v>0.03187687978965861</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1319698204.604331</v>
+        <v>1073808733.466771</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1292180673804424</v>
+        <v>0.1508984612897001</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0217983136455431</v>
+        <v>0.0259270309588033</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1731338198.67096</v>
+        <v>2257942677.562938</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1273400464186127</v>
+        <v>0.1040129003968268</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02914397850157406</v>
+        <v>0.02451122459891365</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1991251840.904618</v>
+        <v>1695635878.245283</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09515933396742945</v>
+        <v>0.07641740533261204</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0439977159127294</v>
+        <v>0.03075424393923407</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3281704055.367602</v>
+        <v>2641443865.696703</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1223352336871623</v>
+        <v>0.09216547697142057</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04527014468886112</v>
+        <v>0.04560220823230599</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1467222091.178357</v>
+        <v>1445097184.322863</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1331744158050039</v>
+        <v>0.118826375726854</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05182755352651084</v>
+        <v>0.04689027488495983</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3596180292.463137</v>
+        <v>3133043628.635124</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1476671478955468</v>
+        <v>0.1331296388648561</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02389486777911735</v>
+        <v>0.02360493377090899</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1351858868.344515</v>
+        <v>981834179.4052955</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1111877229820776</v>
+        <v>0.1187809403415524</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02322741245953991</v>
+        <v>0.02214048996528302</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1237058909.344987</v>
+        <v>1449928101.233769</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1022676645658444</v>
+        <v>0.1042627987355282</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02901948940652655</v>
+        <v>0.03193387760288707</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4108428680.011755</v>
+        <v>3282701786.241254</v>
       </c>
       <c r="F27" t="n">
-        <v>0.117596182414217</v>
+        <v>0.1428039104209968</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01739693647633884</v>
+        <v>0.02444830331874173</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2888533623.267306</v>
+        <v>2649988958.870058</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1140189715400567</v>
+        <v>0.1308027713445762</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03172191336146855</v>
+        <v>0.03316072617176571</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4932588086.32164</v>
+        <v>4767816824.321434</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1059790686670654</v>
+        <v>0.1210075543430243</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04537562348704977</v>
+        <v>0.03316061225840611</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2351360092.82881</v>
+        <v>1931423725.761195</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09053967947651974</v>
+        <v>0.134788658004663</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0294367202066399</v>
+        <v>0.02736969509632029</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1273612307.687057</v>
+        <v>999139336.7004427</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07567850434170129</v>
+        <v>0.09762213485560896</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03522997091532106</v>
+        <v>0.05014486424061163</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1154246883.457916</v>
+        <v>1826721225.754921</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07660566291539099</v>
+        <v>0.107609493162247</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03820511060189807</v>
+        <v>0.03704662397633843</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2352431303.768209</v>
+        <v>2590373586.401718</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1352005539832062</v>
+        <v>0.1593333522645665</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05229800259253163</v>
+        <v>0.05742935469319683</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1138513280.691215</v>
+        <v>1415207178.213598</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08875148317341668</v>
+        <v>0.07979567362069385</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02671836950278836</v>
+        <v>0.02215707283354272</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1201600893.69099</v>
+        <v>1246932867.522732</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1117050153723699</v>
+        <v>0.08183207599397048</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04062997726281999</v>
+        <v>0.02795392074735624</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2761895342.241751</v>
+        <v>1974030128.404874</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1441761517118229</v>
+        <v>0.1758130680291801</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02880479690478016</v>
+        <v>0.01826181130057723</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2420233722.550799</v>
+        <v>2172000259.566141</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09144669334801614</v>
+        <v>0.09213165086991261</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03888078217150406</v>
+        <v>0.03483604193403428</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1494,16 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2166547355.384634</v>
+        <v>1909571241.003626</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1094515849529272</v>
+        <v>0.1183497997354479</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0300059488800303</v>
+        <v>0.02412533621230193</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1910931997.879837</v>
+        <v>1646274822.117215</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1344158775051754</v>
+        <v>0.1627945038757101</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0202149749021952</v>
+        <v>0.02578626117467225</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1561657179.126664</v>
+        <v>1274407935.182309</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1259567835171279</v>
+        <v>0.1033846849420713</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04257314257143648</v>
+        <v>0.04442865392281034</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2188957803.001632</v>
+        <v>2903862604.859232</v>
       </c>
       <c r="F41" t="n">
-        <v>0.143390998136939</v>
+        <v>0.1426642050358628</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03710782373449568</v>
+        <v>0.03034556628747474</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3956107560.113164</v>
+        <v>3470397158.802593</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1274533981668396</v>
+        <v>0.09517184783822849</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03369613195563317</v>
+        <v>0.03547445407764968</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3022384189.251473</v>
+        <v>2071847273.231051</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1990603525157452</v>
+        <v>0.1343842964579739</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01936451793009978</v>
+        <v>0.02314095332311106</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1492086800.847718</v>
+        <v>1434403881.744014</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07649482993439249</v>
+        <v>0.0703278356856874</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02617875167088519</v>
+        <v>0.0348541718682786</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1852957092.868131</v>
+        <v>2481332484.218011</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1520188738859921</v>
+        <v>0.1374066416395682</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04986356192155539</v>
+        <v>0.04492480901260161</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4495880136.38698</v>
+        <v>4677820205.069566</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1312079233668558</v>
+        <v>0.1707056167301941</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03788170345151874</v>
+        <v>0.0502415094196803</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4119039803.505481</v>
+        <v>4324433644.209095</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1465293040398502</v>
+        <v>0.1320745615574691</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04113800007105566</v>
+        <v>0.05107754826666761</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4384019704.803913</v>
+        <v>3890219352.247816</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08043683740727708</v>
+        <v>0.1087070378002684</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03748733776735743</v>
+        <v>0.03194529158952298</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1443594674.701572</v>
+        <v>1629518236.637689</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1908699379041186</v>
+        <v>0.1490198430186298</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04313605605220006</v>
+        <v>0.03540188836285321</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3508035998.347126</v>
+        <v>2565536143.165619</v>
       </c>
       <c r="F50" t="n">
-        <v>0.140836021597723</v>
+        <v>0.1637826896097983</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0350331855616671</v>
+        <v>0.03462220626442344</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1063262023.283422</v>
+        <v>1209439846.728313</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1181764968746395</v>
+        <v>0.1754130916681986</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04861443560095631</v>
+        <v>0.04667074998027048</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3693579979.020374</v>
+        <v>3738132484.304386</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08490216758774469</v>
+        <v>0.1219832541471822</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03834857411286678</v>
+        <v>0.04371870250038827</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3626896620.329644</v>
+        <v>3309727904.507002</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1956738029247389</v>
+        <v>0.1629906871364472</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03556761130643153</v>
+        <v>0.02457772859856642</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3484676247.610107</v>
+        <v>3652826837.732064</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1620114392120839</v>
+        <v>0.1214204135050974</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03311248473428313</v>
+        <v>0.04485954688514439</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4850003181.423541</v>
+        <v>3605902883.120012</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1386039793318782</v>
+        <v>0.1601664458132011</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02203863455951307</v>
+        <v>0.02931205564070837</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1143899125.849749</v>
+        <v>1644484846.021001</v>
       </c>
       <c r="F56" t="n">
-        <v>0.126508492048215</v>
+        <v>0.1121679526070423</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05094522540576495</v>
+        <v>0.05600004447262462</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4106939177.783503</v>
+        <v>4339315763.676872</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1389511457822611</v>
+        <v>0.1407243413903762</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02557540334907802</v>
+        <v>0.02581869475735159</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1591599231.964634</v>
+        <v>1558607393.776575</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1478415043508277</v>
+        <v>0.2031632904006757</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02550713749582079</v>
+        <v>0.03771089730973488</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4760024608.938479</v>
+        <v>3940284672.93509</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09298059006454951</v>
+        <v>0.1092389644576409</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04982391570246553</v>
+        <v>0.04180074836540612</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2431820114.940263</v>
+        <v>3289348149.60076</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1605478626764354</v>
+        <v>0.1729461713327669</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0320261423749824</v>
+        <v>0.03280358373866706</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2670892028.766788</v>
+        <v>2557740003.343393</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1511552334955862</v>
+        <v>0.1358472709399478</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02980699201091932</v>
+        <v>0.02567488521222509</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1997469255.662235</v>
+        <v>2050930210.642347</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1398445284475799</v>
+        <v>0.1673991059911223</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03933808803251723</v>
+        <v>0.04983126074258295</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4252537120.466063</v>
+        <v>3810754767.725405</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08919059333208576</v>
+        <v>0.08068224627915721</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03727775610447026</v>
+        <v>0.04690632198670224</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4027790986.239603</v>
+        <v>5392528379.465164</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1221195335933899</v>
+        <v>0.1762077526691713</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02715956927320216</v>
+        <v>0.02374129180890568</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5266702093.875875</v>
+        <v>4418195848.283383</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1686308475127692</v>
+        <v>0.1707256070977232</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02708516626733068</v>
+        <v>0.03030117395492767</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3922007740.604724</v>
+        <v>5044263606.575311</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1378145612124906</v>
+        <v>0.1474799585215174</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04313518273678241</v>
+        <v>0.03989625736613279</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3018327178.326134</v>
+        <v>2160656053.918819</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08057267555296536</v>
+        <v>0.1030685632649883</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0507631772263924</v>
+        <v>0.0339190995417635</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4433236610.12129</v>
+        <v>6096055243.203393</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09786413249608257</v>
+        <v>0.1582596517482458</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04933533718291579</v>
+        <v>0.04445518653412739</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2207446924.276243</v>
+        <v>2100896935.828983</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1288933846905466</v>
+        <v>0.1179321876752013</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04860767193417422</v>
+        <v>0.05140631981312401</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2298997721.980833</v>
+        <v>2935709516.645522</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1002728091066011</v>
+        <v>0.09802790246368018</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03693625670529709</v>
+        <v>0.03579217991997032</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4725391909.026534</v>
+        <v>3828541109.780652</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1204840503143187</v>
+        <v>0.1177332134694831</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02831650326055908</v>
+        <v>0.02332762015571506</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1640298383.038172</v>
+        <v>1453318994.656633</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1088818410226384</v>
+        <v>0.06667418412164239</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03202132052639056</v>
+        <v>0.0352971711851913</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2284965816.566482</v>
+        <v>3139765331.387779</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09901636771159998</v>
+        <v>0.1032469424499909</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05070644915520185</v>
+        <v>0.03717600193022217</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3070934148.36389</v>
+        <v>3001196487.273765</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1606258705575715</v>
+        <v>0.1491059157015382</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02939804980701509</v>
+        <v>0.03057355225902042</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1928968585.09579</v>
+        <v>1651909934.982035</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1007885809538524</v>
+        <v>0.1172838851551305</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03430582490215398</v>
+        <v>0.03315840648936956</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4896701747.501285</v>
+        <v>3713621402.966159</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1131035910125224</v>
+        <v>0.07913573167040017</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03365940355215113</v>
+        <v>0.02544990628947232</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2304523286.141344</v>
+        <v>1730790748.39264</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1816614952180028</v>
+        <v>0.1677977772459243</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02598830463492123</v>
+        <v>0.02881853647049156</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3179418555.588763</v>
+        <v>4619627903.512058</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08945684785164724</v>
+        <v>0.08980411643365356</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03945349648554643</v>
+        <v>0.03476606965840641</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1294567910.47586</v>
+        <v>1553691292.767969</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1670985129082797</v>
+        <v>0.1541470940330009</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02903934012945875</v>
+        <v>0.03795944830412938</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3695938408.281146</v>
+        <v>3823479888.570192</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07215848926612602</v>
+        <v>0.09586289504850952</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02897478938042148</v>
+        <v>0.02906984971416641</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3840684245.000988</v>
+        <v>4456438514.317318</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09764559226972076</v>
+        <v>0.09995131067884926</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03165868623555299</v>
+        <v>0.03102867688700137</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4339944912.786481</v>
+        <v>3639232547.309008</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2128514464560924</v>
+        <v>0.2135664514118147</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02837269302277604</v>
+        <v>0.02959843449863695</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1962113395.507587</v>
+        <v>1952149869.421624</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1096392610779862</v>
+        <v>0.1468535288692718</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03913278238081597</v>
+        <v>0.03717248642387314</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1796833772.035097</v>
+        <v>1650299864.724636</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1121777989907997</v>
+        <v>0.09505525339090513</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03331187462561225</v>
+        <v>0.05175673714909093</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3019763675.60545</v>
+        <v>3484934060.847474</v>
       </c>
       <c r="F85" t="n">
-        <v>0.159792878128707</v>
+        <v>0.1413622173240374</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03944679808331959</v>
+        <v>0.05148681189023477</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2734739254.296667</v>
+        <v>2786766781.818375</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1638990599675134</v>
+        <v>0.1408657488899718</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02158959956518076</v>
+        <v>0.0222022878045222</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1357697272.403268</v>
+        <v>1300013440.807565</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1266261163252536</v>
+        <v>0.1734589250819544</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0362868856898226</v>
+        <v>0.03783806569758958</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,16 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3032557684.859197</v>
+        <v>2513809983.936419</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1304213842020011</v>
+        <v>0.1498024507951165</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02829815927584202</v>
+        <v>0.0241123704178288</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2839668934.588772</v>
+        <v>3395722147.182568</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1257368106237702</v>
+        <v>0.1323470681817478</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02679093294921192</v>
+        <v>0.02609021675640652</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1812306563.187919</v>
+        <v>1611151595.705842</v>
       </c>
       <c r="F90" t="n">
-        <v>0.102155473875576</v>
+        <v>0.08811906288685467</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04610180625791461</v>
+        <v>0.04384001289425603</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1290860570.51727</v>
+        <v>1845194735.258578</v>
       </c>
       <c r="F91" t="n">
-        <v>0.172660745421029</v>
+        <v>0.1536043841816548</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03928116001802878</v>
+        <v>0.05547050631599922</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2694092817.002063</v>
+        <v>2284516109.141989</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09447812177837656</v>
+        <v>0.08156601553706844</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02891240648089697</v>
+        <v>0.04402576353117955</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3142043417.991518</v>
+        <v>4064857658.376355</v>
       </c>
       <c r="F93" t="n">
-        <v>0.103072770179854</v>
+        <v>0.1354595685924722</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04098620188838416</v>
+        <v>0.04395016606713772</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1560428595.629543</v>
+        <v>1840871643.119765</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1542100480830117</v>
+        <v>0.1519944548531209</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03961659145225298</v>
+        <v>0.04020471483306638</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3192202553.983824</v>
+        <v>3055221334.606791</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1253346376016925</v>
+        <v>0.1024769878226827</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04864943840859186</v>
+        <v>0.0409520705138522</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2406956913.085714</v>
+        <v>2290343558.003987</v>
       </c>
       <c r="F96" t="n">
-        <v>0.12346403112448</v>
+        <v>0.1385944956389095</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03383911070105327</v>
+        <v>0.03782114760902492</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3837189701.273067</v>
+        <v>4656033251.660116</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1111059581051066</v>
+        <v>0.1699316926011659</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02440620957673407</v>
+        <v>0.02436762391180415</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2452193932.467117</v>
+        <v>2805170971.495972</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1209900624647774</v>
+        <v>0.08510748720694598</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03215237898780312</v>
+        <v>0.02053495003926673</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2300772743.09435</v>
+        <v>3224808371.134094</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09990177812438146</v>
+        <v>0.1398204034744635</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03146995741618616</v>
+        <v>0.02262595982822702</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4153292622.343734</v>
+        <v>3129312198.122104</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1529863662781651</v>
+        <v>0.1193635525062019</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02010326847766152</v>
+        <v>0.02139418638595555</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3548978769.580203</v>
+        <v>3208158645.795819</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1700290435577796</v>
+        <v>0.1805876067462784</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04197871753288147</v>
+        <v>0.04249827078191679</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_404.xlsx
+++ b/output/fit_clients/fit_round_404.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2071878113.433672</v>
+        <v>1905912069.304131</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07422661334700981</v>
+        <v>0.1032180020692986</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03167295892440428</v>
+        <v>0.04021482626452567</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2374899757.132568</v>
+        <v>2188933372.598389</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1137993650672724</v>
+        <v>0.1392846099025192</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04728687485410535</v>
+        <v>0.04369238674001137</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3700779636.466745</v>
+        <v>4000252906.442958</v>
       </c>
       <c r="F4" t="n">
-        <v>0.123001879765708</v>
+        <v>0.1502316281206214</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02986224638533221</v>
+        <v>0.03673034767525861</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>205</v>
+      </c>
+      <c r="J4" t="n">
+        <v>404</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2828609429.299921</v>
+        <v>3184801831.433455</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1049991224583139</v>
+        <v>0.1012275081991948</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04927788932290521</v>
+        <v>0.04772574488327903</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>164</v>
+      </c>
+      <c r="J5" t="n">
+        <v>399</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2359564693.289208</v>
+        <v>2639075199.283599</v>
       </c>
       <c r="F6" t="n">
-        <v>0.125179215158214</v>
+        <v>0.1112082081598698</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05610609719833167</v>
+        <v>0.04976696378133464</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2215015419.149544</v>
+        <v>2535301897.72758</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06291740276691293</v>
+        <v>0.09091112425610215</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03663036712230826</v>
+        <v>0.03065588238998829</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3597799233.621424</v>
+        <v>3980183644.157545</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1345329397046067</v>
+        <v>0.1868087831225361</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03322733331967913</v>
+        <v>0.02771320025760295</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>109</v>
+      </c>
+      <c r="J8" t="n">
+        <v>404</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2010344448.32633</v>
+        <v>2169778056.864959</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1737687339225313</v>
+        <v>0.1366201558207933</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02593234643659386</v>
+        <v>0.02818758962936145</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3699447038.961016</v>
+        <v>4424516378.439137</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1513421158245291</v>
+        <v>0.1967833841751706</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04024207779136612</v>
+        <v>0.04168094369132398</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>326</v>
+      </c>
+      <c r="J10" t="n">
+        <v>404</v>
+      </c>
+      <c r="K10" t="n">
+        <v>45.96964243054061</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3559164163.760382</v>
+        <v>2592362090.104468</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1659421528658576</v>
+        <v>0.119428415774186</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0483827879654404</v>
+        <v>0.04896086118580897</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>169</v>
+      </c>
+      <c r="J11" t="n">
+        <v>400</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +853,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2405934197.621727</v>
+        <v>2744047699.658711</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1479472533653513</v>
+        <v>0.1253575036155211</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05335967700403496</v>
+        <v>0.03560950438659571</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4631374270.097553</v>
+        <v>3404976233.031136</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06562193084990593</v>
+        <v>0.09485284637075393</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0251421252265002</v>
+        <v>0.01963517704492683</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>211</v>
+      </c>
+      <c r="J13" t="n">
+        <v>403</v>
+      </c>
+      <c r="K13" t="n">
+        <v>39.95231161414785</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2835482953.126294</v>
+        <v>2684846390.385602</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1599076961961532</v>
+        <v>0.1221446447063491</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03976590208101237</v>
+        <v>0.02696968659198641</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>82</v>
+      </c>
+      <c r="J14" t="n">
+        <v>401</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1185376333.538114</v>
+        <v>1340564459.539914</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1022123029513211</v>
+        <v>0.101574395806384</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03652906399386503</v>
+        <v>0.04267268932223518</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2690311544.254889</v>
+        <v>2552594226.361709</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09755401868247239</v>
+        <v>0.09828486854905305</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03492365258089793</v>
+        <v>0.03488470219862433</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1030,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3405372150.36763</v>
+        <v>3359737538.054147</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1156349320450408</v>
+        <v>0.1563484468041477</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0381498832225555</v>
+        <v>0.05302104313762122</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>195</v>
+      </c>
+      <c r="J17" t="n">
+        <v>403</v>
+      </c>
+      <c r="K17" t="n">
+        <v>41.07669667384448</v>
       </c>
     </row>
     <row r="18">
@@ -934,16 +1067,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3112611107.70498</v>
+        <v>2534559152.23743</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1521891948765235</v>
+        <v>0.1694161287044667</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03187687978965861</v>
+        <v>0.02626913678422189</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>101</v>
+      </c>
+      <c r="J18" t="n">
+        <v>403</v>
+      </c>
+      <c r="K18" t="n">
+        <v>30.57160440143543</v>
       </c>
     </row>
     <row r="19">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1073808733.466771</v>
+        <v>1235958781.023322</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1508984612897001</v>
+        <v>0.1180820228154583</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0259270309588033</v>
+        <v>0.02719915535605103</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2257942677.562938</v>
+        <v>1725817951.206616</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1040129003968268</v>
+        <v>0.1317388248787943</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02451122459891365</v>
+        <v>0.02757276096857075</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1695635878.245283</v>
+        <v>2449979832.032696</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07641740533261204</v>
+        <v>0.0981656632835876</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03075424393923407</v>
+        <v>0.04553530944713634</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2641443865.696703</v>
+        <v>3123498460.298619</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09216547697142057</v>
+        <v>0.1371915656967559</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04560220823230599</v>
+        <v>0.04756848082472294</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>112</v>
+      </c>
+      <c r="J22" t="n">
+        <v>402</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1445097184.322863</v>
+        <v>1469800843.962102</v>
       </c>
       <c r="F23" t="n">
-        <v>0.118826375726854</v>
+        <v>0.144832550502606</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04689027488495983</v>
+        <v>0.05378259335999875</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3133043628.635124</v>
+        <v>3314338125.268036</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1331296388648561</v>
+        <v>0.1182712280778976</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02360493377090899</v>
+        <v>0.03717569250862701</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>127</v>
+      </c>
+      <c r="J24" t="n">
+        <v>403</v>
+      </c>
+      <c r="K24" t="n">
+        <v>43.60378949396951</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>981834179.4052955</v>
+        <v>1411628348.126946</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1187809403415524</v>
+        <v>0.1162558475133798</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02214048996528302</v>
+        <v>0.02430154667721705</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1449928101.233769</v>
+        <v>1150567576.033145</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1042627987355282</v>
+        <v>0.1148176285108798</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03193387760288707</v>
+        <v>0.02742023582978999</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3282701786.241254</v>
+        <v>3838324616.561827</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1428039104209968</v>
+        <v>0.1524609779043947</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02444830331874173</v>
+        <v>0.02068548491506543</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>169</v>
+      </c>
+      <c r="J27" t="n">
+        <v>404</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2649988958.870058</v>
+        <v>2364785885.247602</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1308027713445762</v>
+        <v>0.1362800607141961</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03316072617176571</v>
+        <v>0.04631446404578323</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>98</v>
+      </c>
+      <c r="J28" t="n">
+        <v>402</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1450,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4767816824.321434</v>
+        <v>4286382653.101962</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1210075543430243</v>
+        <v>0.1000160040603256</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03316061225840611</v>
+        <v>0.03875368503845991</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>341</v>
+      </c>
+      <c r="J29" t="n">
+        <v>404</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1931423725.761195</v>
+        <v>2043595975.615713</v>
       </c>
       <c r="F30" t="n">
-        <v>0.134788658004663</v>
+        <v>0.1126440444788402</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02736969509632029</v>
+        <v>0.03692060924793893</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>999139336.7004427</v>
+        <v>934487897.3575656</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09762213485560896</v>
+        <v>0.07803525032555704</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05014486424061163</v>
+        <v>0.03213637656310011</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1826721225.754921</v>
+        <v>1144008318.381159</v>
       </c>
       <c r="F32" t="n">
-        <v>0.107609493162247</v>
+        <v>0.07565030182166863</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03704662397633843</v>
+        <v>0.03014320882208221</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2590373586.401718</v>
+        <v>2509483450.251134</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1593333522645665</v>
+        <v>0.1726001032650049</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05742935469319683</v>
+        <v>0.03777594112517022</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1415207178.213598</v>
+        <v>1163928234.206753</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07979567362069385</v>
+        <v>0.09563408016544606</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02215707283354272</v>
+        <v>0.02308711028005822</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1246932867.522732</v>
+        <v>999995395.1526352</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08183207599397048</v>
+        <v>0.07917511605242192</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02795392074735624</v>
+        <v>0.03181376529447279</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1974030128.404874</v>
+        <v>2017280743.707466</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1758130680291801</v>
+        <v>0.181149332899253</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01826181130057723</v>
+        <v>0.01803070941938941</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2172000259.566141</v>
+        <v>2908038895.983482</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09213165086991261</v>
+        <v>0.09560097445158962</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03483604193403428</v>
+        <v>0.03045973757603745</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1909571241.003626</v>
+        <v>1546126186.917795</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1183497997354479</v>
+        <v>0.08239757533508542</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02412533621230193</v>
+        <v>0.03582844864108468</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1646274822.117215</v>
+        <v>2161882843.987326</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1627945038757101</v>
+        <v>0.1515016936185988</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02578626117467225</v>
+        <v>0.02801298435984817</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1274407935.182309</v>
+        <v>1571547282.728031</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1033846849420713</v>
+        <v>0.1226355425685653</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04442865392281034</v>
+        <v>0.0363635545727316</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2903862604.859232</v>
+        <v>1813121295.062127</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1426642050358628</v>
+        <v>0.1141400937782938</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03034556628747474</v>
+        <v>0.04687949330680385</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3470397158.802593</v>
+        <v>2951186539.80816</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09517184783822849</v>
+        <v>0.07716930681269782</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03547445407764968</v>
+        <v>0.03767564038906036</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>173</v>
+      </c>
+      <c r="J42" t="n">
+        <v>399</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2071847273.231051</v>
+        <v>1900485477.099134</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1343842964579739</v>
+        <v>0.1792309337153629</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02314095332311106</v>
+        <v>0.01823240685396905</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1434403881.744014</v>
+        <v>1440053712.107803</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0703278356856874</v>
+        <v>0.06695678997375745</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0348541718682786</v>
+        <v>0.03520016168999438</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2481332484.218011</v>
+        <v>2255183173.490963</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1374066416395682</v>
+        <v>0.1265141493221943</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04492480901260161</v>
+        <v>0.03519971621901821</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2051,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4677820205.069566</v>
+        <v>3884686046.580466</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1707056167301941</v>
+        <v>0.1303874169331428</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0502415094196803</v>
+        <v>0.04030540192859521</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>243</v>
+      </c>
+      <c r="J46" t="n">
+        <v>403</v>
+      </c>
+      <c r="K46" t="n">
+        <v>45.47522826362183</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4324433644.209095</v>
+        <v>4788633332.841293</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1320745615574691</v>
+        <v>0.1310540692046923</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05107754826666761</v>
+        <v>0.05020141282635309</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>181</v>
+      </c>
+      <c r="J47" t="n">
+        <v>404</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2117,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3890219352.247816</v>
+        <v>3196202359.525806</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1087070378002684</v>
+        <v>0.110421299611044</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03194529158952298</v>
+        <v>0.0333545756616044</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>208</v>
+      </c>
+      <c r="J48" t="n">
+        <v>403</v>
+      </c>
+      <c r="K48" t="n">
+        <v>35.30178182394397</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1629518236.637689</v>
+        <v>1770644422.195163</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1490198430186298</v>
+        <v>0.1558476222725201</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03540188836285321</v>
+        <v>0.04299354114402018</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2195,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2565536143.165619</v>
+        <v>3192086124.036179</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1637826896097983</v>
+        <v>0.1379745024100872</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03462220626442344</v>
+        <v>0.04909912752309046</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>139</v>
+      </c>
+      <c r="J50" t="n">
+        <v>403</v>
+      </c>
+      <c r="K50" t="n">
+        <v>42.1558777285184</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1209439846.728313</v>
+        <v>1333423440.356691</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1754130916681986</v>
+        <v>0.190802931889767</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04667074998027048</v>
+        <v>0.0443247381493419</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2267,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3738132484.304386</v>
+        <v>4925380542.045502</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1219832541471822</v>
+        <v>0.08937063028532559</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04371870250038827</v>
+        <v>0.057775480379031</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>234</v>
+      </c>
+      <c r="J52" t="n">
+        <v>404</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3309727904.507002</v>
+        <v>3058399379.096727</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1629906871364472</v>
+        <v>0.15886627118967</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02457772859856642</v>
+        <v>0.03537593147148215</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>55</v>
+      </c>
+      <c r="J53" t="n">
+        <v>401</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3652826837.732064</v>
+        <v>3676454074.822309</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1214204135050974</v>
+        <v>0.1617448838118719</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04485954688514439</v>
+        <v>0.03964048824383178</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>215</v>
+      </c>
+      <c r="J54" t="n">
+        <v>404</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3605902883.120012</v>
+        <v>4175818241.73752</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1601664458132011</v>
+        <v>0.1404884150821885</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02931205564070837</v>
+        <v>0.02602088978378145</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>196</v>
+      </c>
+      <c r="J55" t="n">
+        <v>404</v>
+      </c>
+      <c r="K55" t="n">
+        <v>48.9514673178903</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2409,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1644484846.021001</v>
+        <v>1675551624.245263</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1121679526070423</v>
+        <v>0.1238306052137457</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05600004447262462</v>
+        <v>0.05804526051814676</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4339315763.676872</v>
+        <v>3871259883.220995</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1407243413903762</v>
+        <v>0.1467589191378083</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02581869475735159</v>
+        <v>0.01672055768000607</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>173</v>
+      </c>
+      <c r="J57" t="n">
+        <v>404</v>
+      </c>
+      <c r="K57" t="n">
+        <v>47.74505048636207</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1558607393.776575</v>
+        <v>1909204009.869928</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2031632904006757</v>
+        <v>0.1531807103258089</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03771089730973488</v>
+        <v>0.03393815439467349</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3940284672.93509</v>
+        <v>4794181146.048156</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1092389644576409</v>
+        <v>0.1255053732012381</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04180074836540612</v>
+        <v>0.04314035593663217</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>198</v>
+      </c>
+      <c r="J59" t="n">
+        <v>403</v>
+      </c>
+      <c r="K59" t="n">
+        <v>45.01977048847747</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2547,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3289348149.60076</v>
+        <v>2699184799.002313</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1729461713327669</v>
+        <v>0.1571125603912576</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03280358373866706</v>
+        <v>0.02942690158830018</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>75</v>
+      </c>
+      <c r="J60" t="n">
+        <v>403</v>
+      </c>
+      <c r="K60" t="n">
+        <v>39.36737298086287</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2557740003.343393</v>
+        <v>3154507663.27212</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1358472709399478</v>
+        <v>0.1454900171804897</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02567488521222509</v>
+        <v>0.02940220595693738</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>384</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2050930210.642347</v>
+        <v>1425049360.498432</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1673991059911223</v>
+        <v>0.131347485521768</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04983126074258295</v>
+        <v>0.04220502308316241</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3810754767.725405</v>
+        <v>3977212336.450698</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08068224627915721</v>
+        <v>0.09891765518528875</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04690632198670224</v>
+        <v>0.03579050317988617</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>201</v>
+      </c>
+      <c r="J63" t="n">
+        <v>404</v>
+      </c>
+      <c r="K63" t="n">
+        <v>46.86999706553267</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2697,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5392528379.465164</v>
+        <v>4332359124.777148</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1762077526691713</v>
+        <v>0.1693830349508197</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02374129180890568</v>
+        <v>0.02174896689599011</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>202</v>
+      </c>
+      <c r="J64" t="n">
+        <v>403</v>
+      </c>
+      <c r="K64" t="n">
+        <v>43.50539964484749</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2728,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4418195848.283383</v>
+        <v>4231418348.968472</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1707256070977232</v>
+        <v>0.1195209374085886</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03030117395492767</v>
+        <v>0.02040399207395063</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>298</v>
+      </c>
+      <c r="J65" t="n">
+        <v>404</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,16 +2769,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5044263606.575311</v>
+        <v>3629459583.116717</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1474799585215174</v>
+        <v>0.1458384827482011</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03989625736613279</v>
+        <v>0.03630620780763186</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>200</v>
+      </c>
+      <c r="J66" t="n">
+        <v>403</v>
+      </c>
+      <c r="K66" t="n">
+        <v>45.0388228811355</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2160656053.918819</v>
+        <v>2426470116.973844</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1030685632649883</v>
+        <v>0.09167246215952962</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0339190995417635</v>
+        <v>0.04025147442109785</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2835,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6096055243.203393</v>
+        <v>5193810531.414858</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1582596517482458</v>
+        <v>0.09991996813738531</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04445518653412739</v>
+        <v>0.03712850560354592</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>220</v>
+      </c>
+      <c r="J68" t="n">
+        <v>403</v>
+      </c>
+      <c r="K68" t="n">
+        <v>44.8346725748419</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2100896935.828983</v>
+        <v>1988971351.727727</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1179321876752013</v>
+        <v>0.1530568747801441</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05140631981312401</v>
+        <v>0.05478372707429849</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2935709516.645522</v>
+        <v>3208209326.118551</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09802790246368018</v>
+        <v>0.08583986124190951</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03579217991997032</v>
+        <v>0.03261380398642653</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>54</v>
+      </c>
+      <c r="J70" t="n">
+        <v>389</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2942,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3828541109.780652</v>
+        <v>4223632452.09305</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1177332134694831</v>
+        <v>0.1440644155830644</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02332762015571506</v>
+        <v>0.02626938366492244</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>286</v>
+      </c>
+      <c r="J71" t="n">
+        <v>403</v>
+      </c>
+      <c r="K71" t="n">
+        <v>44.76200042431345</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1453318994.656633</v>
+        <v>2089566194.746766</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06667418412164239</v>
+        <v>0.07719413493114678</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0352971711851913</v>
+        <v>0.04810310703755734</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3139765331.387779</v>
+        <v>2847206446.814078</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1032469424499909</v>
+        <v>0.07969456051221062</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03717600193022217</v>
+        <v>0.04999448733460844</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3001196487.273765</v>
+        <v>3483032269.72279</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1491059157015382</v>
+        <v>0.1347060873317932</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03057355225902042</v>
+        <v>0.02262363951998582</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>113</v>
+      </c>
+      <c r="J74" t="n">
+        <v>404</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1651909934.982035</v>
+        <v>2163067188.841169</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1172838851551305</v>
+        <v>0.1159896725937832</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03315840648936956</v>
+        <v>0.03781337586632252</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3125,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3713621402.966159</v>
+        <v>3522527987.123931</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07913573167040017</v>
+        <v>0.1252278726680604</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02544990628947232</v>
+        <v>0.02087041831256976</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>191</v>
+      </c>
+      <c r="J76" t="n">
+        <v>404</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1730790748.39264</v>
+        <v>1486786086.891713</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1677977772459243</v>
+        <v>0.1233041212970961</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02881853647049156</v>
+        <v>0.02135439222828956</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4619627903.512058</v>
+        <v>3490626718.267473</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08980411643365356</v>
+        <v>0.1347878626426656</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03476606965840641</v>
+        <v>0.03718483508396161</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>201</v>
+      </c>
+      <c r="J78" t="n">
+        <v>404</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1553691292.767969</v>
+        <v>1307551047.699468</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1541470940330009</v>
+        <v>0.1721287710368244</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03795944830412938</v>
+        <v>0.03629142630114063</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3265,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3823479888.570192</v>
+        <v>3739794799.584992</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09586289504850952</v>
+        <v>0.0870894567747949</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02906984971416641</v>
+        <v>0.02834502987662814</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>197</v>
+      </c>
+      <c r="J80" t="n">
+        <v>404</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,16 +3300,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4456438514.317318</v>
+        <v>3199550177.51917</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09995131067884926</v>
+        <v>0.09805102632816318</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03102867688700137</v>
+        <v>0.02797768866708882</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>188</v>
+      </c>
+      <c r="J81" t="n">
+        <v>403</v>
+      </c>
+      <c r="K81" t="n">
+        <v>34.74470592182447</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3639232547.309008</v>
+        <v>3432572692.82866</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2135664514118147</v>
+        <v>0.1895789420758425</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02959843449863695</v>
+        <v>0.02093457982183313</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>276</v>
+      </c>
+      <c r="J82" t="n">
+        <v>404</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1952149869.421624</v>
+        <v>1882529463.742448</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1468535288692718</v>
+        <v>0.1436970094327965</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03717248642387314</v>
+        <v>0.04463880289168842</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1650299864.724636</v>
+        <v>2141524861.299622</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09505525339090513</v>
+        <v>0.1211567981064337</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05175673714909093</v>
+        <v>0.04137629284765047</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3484934060.847474</v>
+        <v>2611205080.395778</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1413622173240374</v>
+        <v>0.1280316007489393</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05148681189023477</v>
+        <v>0.05565392459493133</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>52</v>
+      </c>
+      <c r="J85" t="n">
+        <v>401</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2786766781.818375</v>
+        <v>2268110425.173741</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1408657488899718</v>
+        <v>0.1646147886199557</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0222022878045222</v>
+        <v>0.02650701793583845</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1300013440.807565</v>
+        <v>1370942366.523309</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1734589250819544</v>
+        <v>0.1477176972025688</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03783806569758958</v>
+        <v>0.03578993782763405</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2513809983.936419</v>
+        <v>2833406705.264672</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1498024507951165</v>
+        <v>0.1604045896691778</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0241123704178288</v>
+        <v>0.03028558983032554</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>52</v>
+      </c>
+      <c r="J88" t="n">
+        <v>396</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3395722147.182568</v>
+        <v>2176371273.160324</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1323470681817478</v>
+        <v>0.1139166956384803</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02609021675640652</v>
+        <v>0.02672849015375546</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1611151595.705842</v>
+        <v>2127149609.3178</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08811906288685467</v>
+        <v>0.0856869164476125</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04384001289425603</v>
+        <v>0.05327354243752082</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1845194735.258578</v>
+        <v>1428200764.234987</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1536043841816548</v>
+        <v>0.1239547221529068</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05547050631599922</v>
+        <v>0.03904076255246843</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2284516109.141989</v>
+        <v>2035232888.159664</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08156601553706844</v>
+        <v>0.06720105345588578</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04402576353117955</v>
+        <v>0.0295818369888919</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4064857658.376355</v>
+        <v>3672146972.866745</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1354595685924722</v>
+        <v>0.1206002340716856</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04395016606713772</v>
+        <v>0.04662652744160712</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>193</v>
+      </c>
+      <c r="J93" t="n">
+        <v>404</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1840871643.119765</v>
+        <v>2436154608.875189</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1519944548531209</v>
+        <v>0.1366051510154553</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04020471483306638</v>
+        <v>0.0284716876761977</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3055221334.606791</v>
+        <v>2174737617.858685</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1024769878226827</v>
+        <v>0.1027242787519245</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0409520705138522</v>
+        <v>0.03887137679362156</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2290343558.003987</v>
+        <v>1676053906.158385</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1385944956389095</v>
+        <v>0.1376200999515841</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03782114760902492</v>
+        <v>0.03128547683901718</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4656033251.660116</v>
+        <v>5302429524.257107</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1699316926011659</v>
+        <v>0.1150422432357844</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02436762391180415</v>
+        <v>0.01852870849483131</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>210</v>
+      </c>
+      <c r="J97" t="n">
+        <v>404</v>
+      </c>
+      <c r="K97" t="n">
+        <v>46.05674468863167</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2805170971.495972</v>
+        <v>3910381189.30004</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08510748720694598</v>
+        <v>0.09200914258990169</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02053495003926673</v>
+        <v>0.03029034641725564</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>105</v>
+      </c>
+      <c r="J98" t="n">
+        <v>404</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3224808371.134094</v>
+        <v>3326326240.891714</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1398204034744635</v>
+        <v>0.1481041443278352</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02262595982822702</v>
+        <v>0.02282226193067263</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3129312198.122104</v>
+        <v>3526497040.296175</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1193635525062019</v>
+        <v>0.1610874272774753</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02139418638595555</v>
+        <v>0.02213987471066345</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>188</v>
+      </c>
+      <c r="J100" t="n">
+        <v>403</v>
+      </c>
+      <c r="K100" t="n">
+        <v>44.35970556048431</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3208158645.795819</v>
+        <v>2294066521.119776</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1805876067462784</v>
+        <v>0.1425459545009267</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04249827078191679</v>
+        <v>0.04992039206405139</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
